--- a/mosip_master/xlsx/location.xlsx
+++ b/mosip_master/xlsx/location.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakshitha.M\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop_Branch_all\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$121</definedName>
+  </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="110">
   <si>
     <t>lang_code</t>
   </si>
@@ -303,6 +306,57 @@
   </si>
   <si>
     <t>لرمز البريدي</t>
+  </si>
+  <si>
+    <t>مايكونتري</t>
+  </si>
+  <si>
+    <t>دولة</t>
+  </si>
+  <si>
+    <t>مناصرة</t>
+  </si>
+  <si>
+    <t>صداع نصفي</t>
+  </si>
+  <si>
+    <t>آسام</t>
+  </si>
+  <si>
+    <t>المهدية</t>
+  </si>
+  <si>
+    <t>أولد أوجيه</t>
+  </si>
+  <si>
+    <t>نسبة تاي القاتلة</t>
+  </si>
+  <si>
+    <t>سيدي علال تعزي</t>
+  </si>
+  <si>
+    <t>الرباط</t>
+  </si>
+  <si>
+    <t>أكدال</t>
+  </si>
+  <si>
+    <t>حى حسن</t>
+  </si>
+  <si>
+    <t>السويسي</t>
+  </si>
+  <si>
+    <t>مدينة أل عرفان</t>
+  </si>
+  <si>
+    <t>هناك الرياض</t>
+  </si>
+  <si>
+    <t>مدينة الرباط</t>
+  </si>
+  <si>
+    <t>إل يوسف</t>
   </si>
 </sst>
 </file>
@@ -650,19 +704,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
   </cols>
@@ -674,7 +729,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -697,7 +752,7 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4">
@@ -717,27 +772,27 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
+      <c r="C3" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="4">
@@ -757,7 +812,7 @@
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="4">
@@ -796,14 +851,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="4">
@@ -826,7 +881,7 @@
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="4">
@@ -849,7 +904,7 @@
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D9" s="4">
@@ -865,14 +920,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="4">
@@ -895,7 +950,7 @@
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="4">
@@ -918,7 +973,7 @@
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D12" s="4">
@@ -934,14 +989,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="4">
@@ -964,7 +1019,7 @@
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="4">
@@ -987,7 +1042,7 @@
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D15" s="4">
@@ -1003,14 +1058,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="4">
@@ -1033,7 +1088,7 @@
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="4">
@@ -1056,7 +1111,7 @@
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>14022</v>
       </c>
       <c r="D18" s="4">
@@ -1072,14 +1127,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="4">
@@ -1102,7 +1157,7 @@
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="4">
@@ -1125,8 +1180,8 @@
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>34</v>
+      <c r="C21" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="D21" s="4">
         <v>4</v>
@@ -1141,14 +1196,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="4">
@@ -1171,7 +1226,7 @@
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="4">
@@ -1194,7 +1249,7 @@
       <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <v>14053</v>
       </c>
       <c r="D24" s="4">
@@ -1210,14 +1265,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="4">
@@ -1240,7 +1295,7 @@
       <c r="B26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="4">
@@ -1263,8 +1318,8 @@
       <c r="B27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>37</v>
+      <c r="C27" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="D27" s="4">
         <v>4</v>
@@ -1279,14 +1334,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="4">
@@ -1309,7 +1364,7 @@
       <c r="B29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="4">
@@ -1332,7 +1387,7 @@
       <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="5">
         <v>14023</v>
       </c>
       <c r="D30" s="4">
@@ -1348,14 +1403,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="4">
@@ -1378,7 +1433,7 @@
       <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="4">
@@ -1401,8 +1456,8 @@
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>40</v>
+      <c r="C33" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="D33" s="4">
         <v>4</v>
@@ -1417,14 +1472,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="4">
@@ -1447,7 +1502,7 @@
       <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="4">
@@ -1470,7 +1525,7 @@
       <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="5">
         <v>14000</v>
       </c>
       <c r="D36" s="4">
@@ -1486,14 +1541,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D37" s="4">
@@ -1516,7 +1571,7 @@
       <c r="B38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="4">
@@ -1539,8 +1594,8 @@
       <c r="B39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>43</v>
+      <c r="C39" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="D39" s="4">
         <v>4</v>
@@ -1555,14 +1610,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="4">
@@ -1585,7 +1640,7 @@
       <c r="B41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D41" s="4">
@@ -1608,7 +1663,7 @@
       <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="5">
         <v>14110</v>
       </c>
       <c r="D42" s="4">
@@ -1624,14 +1679,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="4">
@@ -1654,7 +1709,7 @@
       <c r="B44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D44" s="4">
@@ -1677,8 +1732,8 @@
       <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>46</v>
+      <c r="C45" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="D45" s="4">
         <v>4</v>
@@ -1693,14 +1748,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D46" s="4">
@@ -1723,7 +1778,7 @@
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D47" s="4">
@@ -1746,7 +1801,7 @@
       <c r="B48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="5">
         <v>14080</v>
       </c>
       <c r="D48" s="4">
@@ -1762,14 +1817,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D49" s="4">
@@ -1792,7 +1847,7 @@
       <c r="B50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="4">
@@ -1815,8 +1870,8 @@
       <c r="B51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>49</v>
+      <c r="C51" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="D51" s="4">
         <v>4</v>
@@ -1831,14 +1886,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D52" s="4">
@@ -1861,7 +1916,7 @@
       <c r="B53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D53" s="4">
@@ -1884,7 +1939,7 @@
       <c r="B54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="5">
         <v>14025</v>
       </c>
       <c r="D54" s="4">
@@ -1900,14 +1955,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D55" s="4">
@@ -1930,7 +1985,7 @@
       <c r="B56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D56" s="4">
@@ -1953,8 +2008,8 @@
       <c r="B57" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>52</v>
+      <c r="C57" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="D57" s="4">
         <v>4</v>
@@ -1969,14 +2024,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D58" s="4">
@@ -1999,7 +2054,7 @@
       <c r="B59" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D59" s="4">
@@ -2022,7 +2077,7 @@
       <c r="B60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="5">
         <v>14050</v>
       </c>
       <c r="D60" s="4">
@@ -2038,14 +2093,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="4">
@@ -2068,7 +2123,7 @@
       <c r="B62" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="4">
@@ -2091,8 +2146,8 @@
       <c r="B63" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>55</v>
+      <c r="C63" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="D63" s="4">
         <v>2</v>
@@ -2107,14 +2162,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D64" s="4">
@@ -2137,7 +2192,7 @@
       <c r="B65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D65" s="4">
@@ -2160,8 +2215,8 @@
       <c r="B66" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>55</v>
+      <c r="C66" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="D66" s="4">
         <v>3</v>
@@ -2176,14 +2231,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D67" s="4">
@@ -2206,7 +2261,7 @@
       <c r="B68" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D68" s="4">
@@ -2229,8 +2284,8 @@
       <c r="B69" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>58</v>
+      <c r="C69" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D69" s="4">
         <v>4</v>
@@ -2245,14 +2300,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D70" s="4">
@@ -2275,7 +2330,7 @@
       <c r="B71" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D71" s="4">
@@ -2298,7 +2353,7 @@
       <c r="B72" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="5">
         <v>10106</v>
       </c>
       <c r="D72" s="4">
@@ -2314,14 +2369,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D73" s="4">
@@ -2344,7 +2399,7 @@
       <c r="B74" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D74" s="4">
@@ -2367,14 +2422,14 @@
       <c r="B75" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>61</v>
+      <c r="C75" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="D75" s="4">
         <v>4</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>56</v>
@@ -2383,14 +2438,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D76" s="4">
@@ -2413,7 +2468,7 @@
       <c r="B77" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D77" s="4">
@@ -2436,7 +2491,7 @@
       <c r="B78" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="5">
         <v>10000</v>
       </c>
       <c r="D78" s="4">
@@ -2452,14 +2507,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D79" s="4">
@@ -2482,7 +2537,7 @@
       <c r="B80" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D80" s="4">
@@ -2505,8 +2560,8 @@
       <c r="B81" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>64</v>
+      <c r="C81" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="D81" s="4">
         <v>4</v>
@@ -2521,14 +2576,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D82" s="4">
@@ -2551,7 +2606,7 @@
       <c r="B83" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D83" s="4">
@@ -2574,7 +2629,7 @@
       <c r="B84" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="5">
         <v>10105</v>
       </c>
       <c r="D84" s="4">
@@ -2590,14 +2645,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D85" s="4">
@@ -2620,7 +2675,7 @@
       <c r="B86" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D86" s="4">
@@ -2643,14 +2698,14 @@
       <c r="B87" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>67</v>
+      <c r="C87" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="D87" s="4">
         <v>4</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>56</v>
@@ -2659,14 +2714,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D88" s="4">
@@ -2689,7 +2744,7 @@
       <c r="B89" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D89" s="4">
@@ -2712,7 +2767,7 @@
       <c r="B90" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="5">
         <v>10112</v>
       </c>
       <c r="D90" s="4">
@@ -2728,14 +2783,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D91" s="4">
@@ -2758,7 +2813,7 @@
       <c r="B92" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D92" s="4">
@@ -2781,8 +2836,8 @@
       <c r="B93" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>70</v>
+      <c r="C93" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="D93" s="4">
         <v>4</v>
@@ -2797,14 +2852,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D94" s="4">
@@ -2827,7 +2882,7 @@
       <c r="B95" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D95" s="4">
@@ -2850,7 +2905,7 @@
       <c r="B96" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="5">
         <v>10104</v>
       </c>
       <c r="D96" s="4">
@@ -2866,14 +2921,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D97" s="4">
@@ -2896,7 +2951,7 @@
       <c r="B98" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D98" s="4">
@@ -2919,8 +2974,8 @@
       <c r="B99" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>73</v>
+      <c r="C99" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="D99" s="4">
         <v>4</v>
@@ -2935,14 +2990,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D100" s="4">
@@ -2965,7 +3020,7 @@
       <c r="B101" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D101" s="4">
@@ -2988,7 +3043,7 @@
       <c r="B102" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="5">
         <v>10036</v>
       </c>
       <c r="D102" s="4">
@@ -3004,14 +3059,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D103" s="4">
@@ -3034,7 +3089,7 @@
       <c r="B104" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D104" s="4">
@@ -3057,8 +3112,8 @@
       <c r="B105" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>77</v>
+      <c r="C105" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="D105" s="4">
         <v>4</v>
@@ -3073,14 +3128,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D106" s="4">
@@ -3103,7 +3158,7 @@
       <c r="B107" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D107" s="4">
@@ -3126,7 +3181,7 @@
       <c r="B108" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="5">
         <v>10190</v>
       </c>
       <c r="D108" s="4">
@@ -3142,14 +3197,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D109" s="4">
@@ -3172,7 +3227,7 @@
       <c r="B110" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D110" s="4">
@@ -3195,7 +3250,7 @@
       <c r="B111" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D111" s="4">
@@ -3218,7 +3273,7 @@
       <c r="B112" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D112" s="4">
@@ -3241,7 +3296,7 @@
       <c r="B113" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D113" s="4">
@@ -3257,14 +3312,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D114" s="4">
@@ -3280,14 +3335,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D115" s="4">
@@ -3303,14 +3358,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D116" s="4">
@@ -3326,14 +3381,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="5">
         <v>10114</v>
       </c>
       <c r="D117" s="4">
@@ -3356,7 +3411,7 @@
       <c r="B118" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="5">
         <v>10111</v>
       </c>
       <c r="D118" s="4">
@@ -3379,7 +3434,7 @@
       <c r="B119" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="5">
         <v>10114</v>
       </c>
       <c r="D119" s="4">
@@ -3402,7 +3457,7 @@
       <c r="B120" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="5">
         <v>10113</v>
       </c>
       <c r="D120" s="4">
@@ -3425,7 +3480,7 @@
       <c r="B121" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="5">
         <v>10110</v>
       </c>
       <c r="D121" s="4">
@@ -3442,6 +3497,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G121">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="ara"/>
+        <filter val="eng"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/mosip_master/xlsx/location.xlsx
+++ b/mosip_master/xlsx/location.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="108">
   <si>
     <t>lang_code</t>
   </si>
@@ -300,12 +300,6 @@
   </si>
   <si>
     <t>رمز بريدي</t>
-  </si>
-  <si>
-    <t>الرمز البريدي</t>
-  </si>
-  <si>
-    <t>لرمز البريدي</t>
   </si>
   <si>
     <t>مايكونتري</t>
@@ -363,7 +357,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -376,6 +370,11 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF202124"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="2">
@@ -413,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -424,6 +423,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,10 +710,10 @@
   <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
@@ -722,7 +724,7 @@
     <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -745,7 +747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -765,7 +767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>83</v>
       </c>
@@ -773,19 +775,19 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -805,7 +807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -828,7 +830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6" s="5" t="s">
         <v>83</v>
       </c>
@@ -851,7 +853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -874,7 +876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -897,7 +899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
@@ -920,7 +922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -943,7 +945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -966,7 +968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" s="4" t="s">
         <v>83</v>
       </c>
@@ -989,7 +991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1012,7 +1014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1035,7 +1037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15" s="4" t="s">
         <v>83</v>
       </c>
@@ -1058,7 +1060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1081,7 +1083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -1104,7 +1106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="23.25" hidden="1">
       <c r="A18" s="4" t="s">
         <v>83</v>
       </c>
@@ -1117,7 +1119,7 @@
       <c r="D18" s="4">
         <v>5</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -1127,7 +1129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -1150,7 +1152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -1173,7 +1175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1">
       <c r="A21" s="4" t="s">
         <v>83</v>
       </c>
@@ -1181,7 +1183,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D21" s="4">
         <v>4</v>
@@ -1196,7 +1198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
@@ -1219,7 +1221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -1242,7 +1244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="23.25" hidden="1">
       <c r="A24" s="4" t="s">
         <v>83</v>
       </c>
@@ -1255,7 +1257,7 @@
       <c r="D24" s="4">
         <v>5</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -1265,7 +1267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -1288,7 +1290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -1311,7 +1313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" s="4" t="s">
         <v>83</v>
       </c>
@@ -1319,7 +1321,7 @@
         <v>36</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D27" s="4">
         <v>4</v>
@@ -1334,7 +1336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
@@ -1357,7 +1359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -1380,7 +1382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="23.25" hidden="1">
       <c r="A30" s="4" t="s">
         <v>83</v>
       </c>
@@ -1393,7 +1395,7 @@
       <c r="D30" s="4">
         <v>5</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F30" s="4" t="s">
@@ -1403,7 +1405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
@@ -1426,7 +1428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -1449,7 +1451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" s="4" t="s">
         <v>83</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>39</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D33" s="4">
         <v>4</v>
@@ -1472,7 +1474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
@@ -1495,7 +1497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -1518,7 +1520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="23.25" hidden="1">
       <c r="A36" s="4" t="s">
         <v>83</v>
       </c>
@@ -1531,8 +1533,8 @@
       <c r="D36" s="4">
         <v>5</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>91</v>
+      <c r="E36" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>39</v>
@@ -1541,7 +1543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
@@ -1564,7 +1566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -1587,7 +1589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1">
       <c r="A39" s="4" t="s">
         <v>83</v>
       </c>
@@ -1595,7 +1597,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D39" s="4">
         <v>4</v>
@@ -1610,7 +1612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
@@ -1633,7 +1635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -1656,7 +1658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="23.25" hidden="1">
       <c r="A42" s="4" t="s">
         <v>83</v>
       </c>
@@ -1669,8 +1671,8 @@
       <c r="D42" s="4">
         <v>5</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>91</v>
+      <c r="E42" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>42</v>
@@ -1679,7 +1681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
@@ -1702,7 +1704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -1725,7 +1727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1">
       <c r="A45" s="4" t="s">
         <v>83</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>45</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D45" s="4">
         <v>4</v>
@@ -1748,7 +1750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -1771,7 +1773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -1794,7 +1796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="23.25" hidden="1">
       <c r="A48" s="4" t="s">
         <v>83</v>
       </c>
@@ -1807,8 +1809,8 @@
       <c r="D48" s="4">
         <v>5</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>91</v>
+      <c r="E48" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>45</v>
@@ -1817,7 +1819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1">
       <c r="A49" s="4" t="s">
         <v>12</v>
       </c>
@@ -1840,7 +1842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
@@ -1863,7 +1865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1">
       <c r="A51" s="4" t="s">
         <v>83</v>
       </c>
@@ -1871,7 +1873,7 @@
         <v>48</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D51" s="4">
         <v>4</v>
@@ -1886,7 +1888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52" s="4" t="s">
         <v>12</v>
       </c>
@@ -1909,7 +1911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1">
       <c r="A53" s="4" t="s">
         <v>7</v>
       </c>
@@ -1932,7 +1934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="23.25" hidden="1">
       <c r="A54" s="4" t="s">
         <v>83</v>
       </c>
@@ -1945,8 +1947,8 @@
       <c r="D54" s="4">
         <v>5</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>91</v>
+      <c r="E54" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>48</v>
@@ -1955,7 +1957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1">
       <c r="A55" s="4" t="s">
         <v>12</v>
       </c>
@@ -1978,7 +1980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1">
       <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
@@ -2001,7 +2003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1">
       <c r="A57" s="4" t="s">
         <v>83</v>
       </c>
@@ -2009,7 +2011,7 @@
         <v>51</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D57" s="4">
         <v>4</v>
@@ -2024,7 +2026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1">
       <c r="A58" s="4" t="s">
         <v>12</v>
       </c>
@@ -2047,7 +2049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
@@ -2070,7 +2072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="23.25" hidden="1">
       <c r="A60" s="4" t="s">
         <v>83</v>
       </c>
@@ -2083,8 +2085,8 @@
       <c r="D60" s="4">
         <v>5</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>91</v>
+      <c r="E60" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>51</v>
@@ -2093,7 +2095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1">
       <c r="A61" s="4" t="s">
         <v>12</v>
       </c>
@@ -2116,7 +2118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1">
       <c r="A62" s="4" t="s">
         <v>7</v>
       </c>
@@ -2139,7 +2141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1">
       <c r="A63" s="4" t="s">
         <v>83</v>
       </c>
@@ -2147,7 +2149,7 @@
         <v>54</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D63" s="4">
         <v>2</v>
@@ -2162,7 +2164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1">
       <c r="A64" s="4" t="s">
         <v>12</v>
       </c>
@@ -2185,7 +2187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1">
       <c r="A65" s="4" t="s">
         <v>7</v>
       </c>
@@ -2208,7 +2210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1">
       <c r="A66" s="4" t="s">
         <v>83</v>
       </c>
@@ -2216,7 +2218,7 @@
         <v>56</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D66" s="4">
         <v>3</v>
@@ -2231,7 +2233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1">
       <c r="A67" s="4" t="s">
         <v>12</v>
       </c>
@@ -2254,7 +2256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -2277,7 +2279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1">
       <c r="A69" s="4" t="s">
         <v>83</v>
       </c>
@@ -2285,7 +2287,7 @@
         <v>57</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D69" s="4">
         <v>4</v>
@@ -2300,7 +2302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1">
       <c r="A70" s="4" t="s">
         <v>12</v>
       </c>
@@ -2323,7 +2325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1">
       <c r="A71" s="4" t="s">
         <v>7</v>
       </c>
@@ -2346,7 +2348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="23.25" hidden="1">
       <c r="A72" s="4" t="s">
         <v>83</v>
       </c>
@@ -2359,8 +2361,8 @@
       <c r="D72" s="4">
         <v>5</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>91</v>
+      <c r="E72" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>57</v>
@@ -2369,7 +2371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1">
       <c r="A73" s="4" t="s">
         <v>12</v>
       </c>
@@ -2392,7 +2394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1">
       <c r="A74" s="4" t="s">
         <v>7</v>
       </c>
@@ -2415,7 +2417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1">
       <c r="A75" s="4" t="s">
         <v>83</v>
       </c>
@@ -2423,7 +2425,7 @@
         <v>60</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D75" s="4">
         <v>4</v>
@@ -2438,7 +2440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1">
       <c r="A76" s="4" t="s">
         <v>12</v>
       </c>
@@ -2461,7 +2463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -2484,7 +2486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="23.25" hidden="1">
       <c r="A78" s="4" t="s">
         <v>83</v>
       </c>
@@ -2497,8 +2499,8 @@
       <c r="D78" s="4">
         <v>5</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>91</v>
+      <c r="E78" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>60</v>
@@ -2507,7 +2509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1">
       <c r="A79" s="4" t="s">
         <v>12</v>
       </c>
@@ -2530,7 +2532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1">
       <c r="A80" s="4" t="s">
         <v>7</v>
       </c>
@@ -2553,7 +2555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1">
       <c r="A81" s="4" t="s">
         <v>83</v>
       </c>
@@ -2561,7 +2563,7 @@
         <v>63</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D81" s="4">
         <v>4</v>
@@ -2576,7 +2578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1">
       <c r="A82" s="4" t="s">
         <v>12</v>
       </c>
@@ -2599,7 +2601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1">
       <c r="A83" s="4" t="s">
         <v>7</v>
       </c>
@@ -2622,7 +2624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="23.25" hidden="1">
       <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
@@ -2635,8 +2637,8 @@
       <c r="D84" s="4">
         <v>5</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>91</v>
+      <c r="E84" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>63</v>
@@ -2645,7 +2647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1">
       <c r="A85" s="4" t="s">
         <v>12</v>
       </c>
@@ -2668,7 +2670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1">
       <c r="A86" s="4" t="s">
         <v>7</v>
       </c>
@@ -2691,7 +2693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1">
       <c r="A87" s="4" t="s">
         <v>83</v>
       </c>
@@ -2699,7 +2701,7 @@
         <v>66</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D87" s="4">
         <v>4</v>
@@ -2714,7 +2716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1">
       <c r="A88" s="4" t="s">
         <v>12</v>
       </c>
@@ -2737,7 +2739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1">
       <c r="A89" s="4" t="s">
         <v>7</v>
       </c>
@@ -2760,7 +2762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="23.25" hidden="1">
       <c r="A90" s="4" t="s">
         <v>83</v>
       </c>
@@ -2773,8 +2775,8 @@
       <c r="D90" s="4">
         <v>5</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>91</v>
+      <c r="E90" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>66</v>
@@ -2783,7 +2785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1">
       <c r="A91" s="4" t="s">
         <v>12</v>
       </c>
@@ -2806,7 +2808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1">
       <c r="A92" s="4" t="s">
         <v>7</v>
       </c>
@@ -2829,7 +2831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1">
       <c r="A93" s="4" t="s">
         <v>83</v>
       </c>
@@ -2837,7 +2839,7 @@
         <v>69</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D93" s="4">
         <v>4</v>
@@ -2852,7 +2854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1">
       <c r="A94" s="4" t="s">
         <v>12</v>
       </c>
@@ -2875,7 +2877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -2898,7 +2900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="23.25" hidden="1">
       <c r="A96" s="4" t="s">
         <v>83</v>
       </c>
@@ -2911,8 +2913,8 @@
       <c r="D96" s="4">
         <v>5</v>
       </c>
-      <c r="E96" s="4" t="s">
-        <v>91</v>
+      <c r="E96" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>69</v>
@@ -2921,7 +2923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1">
       <c r="A97" s="4" t="s">
         <v>12</v>
       </c>
@@ -2944,7 +2946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1">
       <c r="A98" s="4" t="s">
         <v>7</v>
       </c>
@@ -2967,7 +2969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1">
       <c r="A99" s="4" t="s">
         <v>83</v>
       </c>
@@ -2975,7 +2977,7 @@
         <v>72</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D99" s="4">
         <v>4</v>
@@ -2990,7 +2992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1">
       <c r="A100" s="4" t="s">
         <v>12</v>
       </c>
@@ -3013,7 +3015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1">
       <c r="A101" s="4" t="s">
         <v>7</v>
       </c>
@@ -3036,7 +3038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="23.25" hidden="1">
       <c r="A102" s="4" t="s">
         <v>83</v>
       </c>
@@ -3049,8 +3051,8 @@
       <c r="D102" s="4">
         <v>5</v>
       </c>
-      <c r="E102" s="4" t="s">
-        <v>91</v>
+      <c r="E102" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>72</v>
@@ -3059,7 +3061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1">
       <c r="A103" s="4" t="s">
         <v>12</v>
       </c>
@@ -3082,7 +3084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1">
       <c r="A104" s="4" t="s">
         <v>7</v>
       </c>
@@ -3105,7 +3107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1">
       <c r="A105" s="4" t="s">
         <v>83</v>
       </c>
@@ -3113,7 +3115,7 @@
         <v>76</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D105" s="4">
         <v>4</v>
@@ -3128,7 +3130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1">
       <c r="A106" s="4" t="s">
         <v>12</v>
       </c>
@@ -3151,7 +3153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1">
       <c r="A107" s="4" t="s">
         <v>7</v>
       </c>
@@ -3174,7 +3176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="23.25" hidden="1">
       <c r="A108" s="4" t="s">
         <v>83</v>
       </c>
@@ -3187,8 +3189,8 @@
       <c r="D108" s="4">
         <v>5</v>
       </c>
-      <c r="E108" s="4" t="s">
-        <v>91</v>
+      <c r="E108" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>76</v>
@@ -3197,7 +3199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1">
       <c r="A109" s="4" t="s">
         <v>12</v>
       </c>
@@ -3220,7 +3222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1">
       <c r="A110" s="4" t="s">
         <v>7</v>
       </c>
@@ -3243,7 +3245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1">
       <c r="A111" s="4" t="s">
         <v>7</v>
       </c>
@@ -3266,7 +3268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
@@ -3289,7 +3291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1">
       <c r="A113" s="4" t="s">
         <v>7</v>
       </c>
@@ -3312,7 +3314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1">
       <c r="A114" s="4" t="s">
         <v>12</v>
       </c>
@@ -3335,7 +3337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1">
       <c r="A115" s="4" t="s">
         <v>12</v>
       </c>
@@ -3358,7 +3360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1">
       <c r="A116" s="4" t="s">
         <v>12</v>
       </c>
@@ -3381,7 +3383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1">
       <c r="A117" s="4" t="s">
         <v>12</v>
       </c>
@@ -3404,7 +3406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="23.25" hidden="1">
       <c r="A118" s="4" t="s">
         <v>83</v>
       </c>
@@ -3417,8 +3419,8 @@
       <c r="D118" s="4">
         <v>5</v>
       </c>
-      <c r="E118" s="4" t="s">
-        <v>92</v>
+      <c r="E118" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>27</v>
@@ -3427,7 +3429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="23.25" hidden="1">
       <c r="A119" s="4" t="s">
         <v>83</v>
       </c>
@@ -3440,8 +3442,8 @@
       <c r="D119" s="4">
         <v>5</v>
       </c>
-      <c r="E119" s="4" t="s">
-        <v>92</v>
+      <c r="E119" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>27</v>
@@ -3450,7 +3452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="23.25" hidden="1">
       <c r="A120" s="4" t="s">
         <v>83</v>
       </c>
@@ -3463,8 +3465,8 @@
       <c r="D120" s="4">
         <v>5</v>
       </c>
-      <c r="E120" s="4" t="s">
-        <v>92</v>
+      <c r="E120" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>27</v>
@@ -3473,7 +3475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="23.25" hidden="1">
       <c r="A121" s="4" t="s">
         <v>83</v>
       </c>
@@ -3486,8 +3488,8 @@
       <c r="D121" s="4">
         <v>5</v>
       </c>
-      <c r="E121" s="4" t="s">
-        <v>92</v>
+      <c r="E121" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>27</v>
@@ -3498,10 +3500,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G121">
-    <filterColumn colId="0">
+    <filterColumn colId="3">
       <filters>
-        <filter val="ara"/>
-        <filter val="eng"/>
+        <filter val="0"/>
       </filters>
     </filterColumn>
   </autoFilter>
